--- a/dtpu_configurations/only_integer8/50mhz/mxu_12x12/timing.xlsx
+++ b/dtpu_configurations/only_integer8/50mhz/mxu_12x12/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>8.908781051635742</v>
+        <v>2.9359004497528076</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.018109513446688652</v>
+        <v>0.013224977068603039</v>
       </c>
     </row>
   </sheetData>
